--- a/data/outputs/management_elsevier/52.xlsx
+++ b/data/outputs/management_elsevier/52.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS53"/>
+  <dimension ref="A1:BU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84951853187</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2750</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1157,6 +1173,12 @@
         <is>
           <t>2-s2.0-84951918405</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>1193</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1365,6 +1387,12 @@
           <t>2-s2.0-84951938861</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3245</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1572,6 +1600,12 @@
           <t>2-s2.0-84951921165</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1429</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1779,6 +1813,12 @@
           <t>2-s2.0-84952022647</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>5944</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2001,6 +2041,12 @@
         <is>
           <t>2-s2.0-84951943923</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>2977</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2211,6 +2257,12 @@
           <t>2-s2.0-84952027086</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2521</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2426,6 +2478,12 @@
           <t>2-s2.0-84951980301</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1878</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2645,6 +2703,12 @@
           <t>2-s2.0-84951953963</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2855,6 +2919,12 @@
         <is>
           <t>2-s2.0-84938602634</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>1588</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -3059,6 +3129,12 @@
           <t>2-s2.0-84938740460</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1084</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3268,6 +3344,12 @@
           <t>2-s2.0-84938738448</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1682</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3479,6 +3561,12 @@
           <t>2-s2.0-84938744716</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>739</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3694,6 +3782,12 @@
           <t>2-s2.0-84938748845</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1675</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3911,6 +4005,12 @@
           <t>2-s2.0-84938744220</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>849</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4124,6 +4224,12 @@
           <t>2-s2.0-84938744100</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>13481</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4339,6 +4445,12 @@
           <t>2-s2.0-84938750723</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4550,6 +4662,12 @@
           <t>2-s2.0-84938750222</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>702</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4762,6 +4880,12 @@
         <is>
           <t>2-s2.0-84938744309</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -4962,6 +5086,12 @@
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5165,6 +5295,12 @@
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5356,6 +5492,12 @@
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5584,6 +5726,12 @@
         <is>
           <t>2-s2.0-84938589378</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>1697</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -5792,6 +5940,12 @@
           <t>2-s2.0-84938568275</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1720</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6003,6 +6157,12 @@
           <t>2-s2.0-84929284681</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6214,6 +6374,12 @@
           <t>2-s2.0-84929285399</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>11311</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6433,6 +6599,12 @@
           <t>2-s2.0-84929263323</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1475</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6652,6 +6824,12 @@
           <t>2-s2.0-84929145276</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1199</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6863,6 +7041,12 @@
           <t>2-s2.0-84929283914</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>7546</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7079,6 +7263,12 @@
         <is>
           <t>2-s2.0-84929178977</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>1161</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -7287,6 +7477,12 @@
           <t>2-s2.0-84929277035</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1533</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7493,6 +7689,12 @@
         <is>
           <t>2-s2.0-84929261663</t>
         </is>
+      </c>
+      <c r="BT33" t="n">
+        <v>705</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -7687,6 +7889,12 @@
         <v>2978324</v>
       </c>
       <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7882,6 +8090,12 @@
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8096,6 +8310,12 @@
         <is>
           <t>2-s2.0-85027958717</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>912</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -8303,6 +8523,12 @@
         <is>
           <t>2-s2.0-84929162668</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>2344</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -8499,6 +8725,12 @@
           <t>2-s2.0-84930355062</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>299</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8706,6 +8938,12 @@
           <t>2-s2.0-84930383249</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2433</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8916,6 +9154,12 @@
         <is>
           <t>2-s2.0-84930379385</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>1654</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -9124,6 +9368,12 @@
           <t>2-s2.0-85027950296</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>5202</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9338,6 +9588,12 @@
         <is>
           <t>2-s2.0-85027929032</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>2610</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -9548,6 +9804,12 @@
           <t>2-s2.0-84930374599</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>3807</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9762,6 +10024,12 @@
         <is>
           <t>2-s2.0-84930376511</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>1675</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -9970,6 +10238,12 @@
           <t>2-s2.0-84930375539</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1831</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10177,6 +10451,12 @@
           <t>2-s2.0-85027920541</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2261</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10389,6 +10669,12 @@
         <is>
           <t>2-s2.0-84930380136</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>3803</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -10577,6 +10863,12 @@
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="inlineStr"/>
       <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10766,6 +11058,12 @@
         <v>3021711</v>
       </c>
       <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10957,6 +11255,12 @@
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11148,6 +11452,12 @@
       <c r="BQ51" t="inlineStr"/>
       <c r="BR51" t="inlineStr"/>
       <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11357,6 +11667,12 @@
           <t>2-s2.0-85027949166</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1917</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11580,6 +11896,12 @@
           <t>2-s2.0-84930347387</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>4148</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
